--- a/fifty_one/measurements/updated_filtered_data_with_lengths-all.xlsx
+++ b/fifty_one/measurements/updated_filtered_data_with_lengths-all.xlsx
@@ -764,7 +764,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>67c5adafa3e0a4ddb17f7682</t>
+          <t>67c74e63e5434c612975e80f</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>67c5adafa3e0a4ddb17f7686</t>
+          <t>67c74e63e5434c612975e813</t>
         </is>
       </c>
       <c r="X3" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>67c5adafa3e0a4ddb17f7684</t>
+          <t>67c74e63e5434c612975e811</t>
         </is>
       </c>
       <c r="X4" t="n">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>67c5adafa3e0a4ddb17f7688</t>
+          <t>67c74e63e5434c612975e815</t>
         </is>
       </c>
       <c r="X5" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f79a6</t>
+          <t>67c74e6de5434c612975eb33</t>
         </is>
       </c>
       <c r="X6" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f79a8</t>
+          <t>67c74e6de5434c612975eb35</t>
         </is>
       </c>
       <c r="X7" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f79aa</t>
+          <t>67c74e6de5434c612975eb37</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>67c5adbfa3e0a4ddb17f7b22</t>
+          <t>67c74e70e5434c612975ecaf</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>67c5adbfa3e0a4ddb17f7b20</t>
+          <t>67c74e70e5434c612975ecad</t>
         </is>
       </c>
       <c r="X10" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>67c5adb6a3e0a4ddb17f7849</t>
+          <t>67c74e69e5434c612975e9d6</t>
         </is>
       </c>
       <c r="X11" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>67c5adb6a3e0a4ddb17f7847</t>
+          <t>67c74e69e5434c612975e9d4</t>
         </is>
       </c>
       <c r="X12" t="n">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>67c5adb6a3e0a4ddb17f784d</t>
+          <t>67c74e69e5434c612975e9da</t>
         </is>
       </c>
       <c r="X13" t="n">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>67c5adb6a3e0a4ddb17f784b</t>
+          <t>67c74e69e5434c612975e9d8</t>
         </is>
       </c>
       <c r="X14" t="n">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>67c5adb2a3e0a4ddb17f7763</t>
+          <t>67c74e66e5434c612975e8f0</t>
         </is>
       </c>
       <c r="X15" t="n">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>67c5adb2a3e0a4ddb17f7761</t>
+          <t>67c74e66e5434c612975e8ee</t>
         </is>
       </c>
       <c r="X16" t="n">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>67c5adbba3e0a4ddb17f7a06</t>
+          <t>67c74e6de5434c612975eb93</t>
         </is>
       </c>
       <c r="X17" t="n">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>67c5adbba3e0a4ddb17f7a08</t>
+          <t>67c74e6de5434c612975eb95</t>
         </is>
       </c>
       <c r="X18" t="n">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>67c5adb1a3e0a4ddb17f7708</t>
+          <t>67c74e65e5434c612975e895</t>
         </is>
       </c>
       <c r="X19" t="n">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>67c5adb1a3e0a4ddb17f7706</t>
+          <t>67c74e65e5434c612975e893</t>
         </is>
       </c>
       <c r="X20" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>67c5adb1a3e0a4ddb17f770c</t>
+          <t>67c74e65e5434c612975e899</t>
         </is>
       </c>
       <c r="X21" t="n">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>67c5adada3e0a4ddb17f763e</t>
+          <t>67c74e62e5434c612975e7cb</t>
         </is>
       </c>
       <c r="X22" t="n">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>67c5adada3e0a4ddb17f7640</t>
+          <t>67c74e62e5434c612975e7cd</t>
         </is>
       </c>
       <c r="X23" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>67c5adada3e0a4ddb17f7642</t>
+          <t>67c74e62e5434c612975e7cf</t>
         </is>
       </c>
       <c r="X24" t="n">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>67c5adb6a3e0a4ddb17f7878</t>
+          <t>67c74e69e5434c612975ea05</t>
         </is>
       </c>
       <c r="X25" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>67c5adb6a3e0a4ddb17f7876</t>
+          <t>67c74e69e5434c612975ea03</t>
         </is>
       </c>
       <c r="X26" t="n">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>67c5adb6a3e0a4ddb17f787a</t>
+          <t>67c74e69e5434c612975ea07</t>
         </is>
       </c>
       <c r="X27" t="n">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>67c5adb5a3e0a4ddb17f780e</t>
+          <t>67c74e68e5434c612975e99b</t>
         </is>
       </c>
       <c r="X35" t="n">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>67c5adb5a3e0a4ddb17f7818</t>
+          <t>67c74e68e5434c612975e9a5</t>
         </is>
       </c>
       <c r="X36" t="n">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>67c5adb5a3e0a4ddb17f7814</t>
+          <t>67c74e68e5434c612975e9a1</t>
         </is>
       </c>
       <c r="X37" t="n">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>67c5adb5a3e0a4ddb17f780c</t>
+          <t>67c74e68e5434c612975e999</t>
         </is>
       </c>
       <c r="X38" t="n">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>67c5adb5a3e0a4ddb17f7812</t>
+          <t>67c74e68e5434c612975e99f</t>
         </is>
       </c>
       <c r="X39" t="n">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>67c5adb7a3e0a4ddb17f78ce</t>
+          <t>67c74e6ae5434c612975ea5b</t>
         </is>
       </c>
       <c r="X40" t="n">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>67c5adb7a3e0a4ddb17f78d2</t>
+          <t>67c74e6ae5434c612975ea5f</t>
         </is>
       </c>
       <c r="X41" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>67c5adb7a3e0a4ddb17f78dc</t>
+          <t>67c74e6ae5434c612975ea69</t>
         </is>
       </c>
       <c r="X42" t="n">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>67c5adb7a3e0a4ddb17f78d0</t>
+          <t>67c74e6ae5434c612975ea5d</t>
         </is>
       </c>
       <c r="X43" t="n">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>67c5adb0a3e0a4ddb17f76c2</t>
+          <t>67c74e64e5434c612975e84f</t>
         </is>
       </c>
       <c r="X44" t="n">
@@ -7438,7 +7438,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>67c5adb0a3e0a4ddb17f76c4</t>
+          <t>67c74e64e5434c612975e851</t>
         </is>
       </c>
       <c r="X45" t="n">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>67c5adb0a3e0a4ddb17f76c4</t>
+          <t>67c74e64e5434c612975e851</t>
         </is>
       </c>
       <c r="X46" t="n">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>67c5adb7a3e0a4ddb17f78a1</t>
+          <t>67c74e6ae5434c612975ea2e</t>
         </is>
       </c>
       <c r="X47" t="n">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>67c5adb7a3e0a4ddb17f789d</t>
+          <t>67c74e6ae5434c612975ea2a</t>
         </is>
       </c>
       <c r="X48" t="n">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>67c5adb7a3e0a4ddb17f7899</t>
+          <t>67c74e6ae5434c612975ea26</t>
         </is>
       </c>
       <c r="X49" t="n">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>67c5adb7a3e0a4ddb17f789b</t>
+          <t>67c74e6ae5434c612975ea28</t>
         </is>
       </c>
       <c r="X50" t="n">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f79cb</t>
+          <t>67c74e6de5434c612975eb58</t>
         </is>
       </c>
       <c r="X51" t="n">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f79c7</t>
+          <t>67c74e6de5434c612975eb54</t>
         </is>
       </c>
       <c r="X52" t="n">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f79d5</t>
+          <t>67c74e6de5434c612975eb62</t>
         </is>
       </c>
       <c r="X53" t="n">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f79c9</t>
+          <t>67c74e6de5434c612975eb56</t>
         </is>
       </c>
       <c r="X54" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f79c5</t>
+          <t>67c74e6de5434c612975eb52</t>
         </is>
       </c>
       <c r="X55" t="n">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>67c5adb8a3e0a4ddb17f7928</t>
+          <t>67c74e6be5434c612975eab5</t>
         </is>
       </c>
       <c r="X56" t="n">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>67c5adb8a3e0a4ddb17f791c</t>
+          <t>67c74e6be5434c612975eaa9</t>
         </is>
       </c>
       <c r="X57" t="n">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>67c5adb8a3e0a4ddb17f791e</t>
+          <t>67c74e6be5434c612975eaab</t>
         </is>
       </c>
       <c r="X58" t="n">
@@ -9762,7 +9762,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>67c5adb8a3e0a4ddb17f7922</t>
+          <t>67c74e6be5434c612975eaaf</t>
         </is>
       </c>
       <c r="X59" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>67c5adb8a3e0a4ddb17f7920</t>
+          <t>67c74e6be5434c612975eaad</t>
         </is>
       </c>
       <c r="X60" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>67c5adb8a3e0a4ddb17f7926</t>
+          <t>67c74e6be5434c612975eab3</t>
         </is>
       </c>
       <c r="X61" t="n">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>67c5adb0a3e0a4ddb17f76af</t>
+          <t>67c74e64e5434c612975e83c</t>
         </is>
       </c>
       <c r="X62" t="n">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>67c5adb0a3e0a4ddb17f76ad</t>
+          <t>67c74e64e5434c612975e83a</t>
         </is>
       </c>
       <c r="X63" t="n">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>67c5adbfa3e0a4ddb17f7b35</t>
+          <t>67c74e71e5434c612975ecc2</t>
         </is>
       </c>
       <c r="X64" t="n">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>67c5adbfa3e0a4ddb17f7b37</t>
+          <t>67c74e71e5434c612975ecc4</t>
         </is>
       </c>
       <c r="X65" t="n">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>67c5adbfa3e0a4ddb17f7b39</t>
+          <t>67c74e71e5434c612975ecc6</t>
         </is>
       </c>
       <c r="X66" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>67c5adb9a3e0a4ddb17f7974</t>
+          <t>67c74e6ce5434c612975eb01</t>
         </is>
       </c>
       <c r="X67" t="n">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>67c5adb9a3e0a4ddb17f7970</t>
+          <t>67c74e6ce5434c612975eafd</t>
         </is>
       </c>
       <c r="X68" t="n">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>67c5adb9a3e0a4ddb17f796e</t>
+          <t>67c74e6ce5434c612975eafb</t>
         </is>
       </c>
       <c r="X69" t="n">
@@ -11588,7 +11588,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>67c5adb9a3e0a4ddb17f7974</t>
+          <t>67c74e6ce5434c612975eb01</t>
         </is>
       </c>
       <c r="X70" t="n">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7a6e</t>
+          <t>67c74e6fe5434c612975ebfb</t>
         </is>
       </c>
       <c r="X71" t="n">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7a70</t>
+          <t>67c74e6fe5434c612975ebfd</t>
         </is>
       </c>
       <c r="X72" t="n">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7a68</t>
+          <t>67c74e6fe5434c612975ebf5</t>
         </is>
       </c>
       <c r="X73" t="n">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7a66</t>
+          <t>67c74e6fe5434c612975ebf3</t>
         </is>
       </c>
       <c r="X74" t="n">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7a6a</t>
+          <t>67c74e6fe5434c612975ebf7</t>
         </is>
       </c>
       <c r="X75" t="n">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>67c5adb3a3e0a4ddb17f7778</t>
+          <t>67c74e67e5434c612975e905</t>
         </is>
       </c>
       <c r="X76" t="n">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>67c5adb3a3e0a4ddb17f7776</t>
+          <t>67c74e67e5434c612975e903</t>
         </is>
       </c>
       <c r="X77" t="n">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>67c5adb3a3e0a4ddb17f777c</t>
+          <t>67c74e67e5434c612975e909</t>
         </is>
       </c>
       <c r="X78" t="n">
@@ -13082,7 +13082,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>67c5adb3a3e0a4ddb17f777a</t>
+          <t>67c74e67e5434c612975e907</t>
         </is>
       </c>
       <c r="X79" t="n">
@@ -13248,7 +13248,7 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>67c5adb8a3e0a4ddb17f7907</t>
+          <t>67c74e6be5434c612975ea94</t>
         </is>
       </c>
       <c r="X80" t="n">
@@ -13414,7 +13414,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>67c5adb8a3e0a4ddb17f7905</t>
+          <t>67c74e6be5434c612975ea92</t>
         </is>
       </c>
       <c r="X81" t="n">
@@ -13580,7 +13580,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>67c5adb4a3e0a4ddb17f77ba</t>
+          <t>67c74e67e5434c612975e947</t>
         </is>
       </c>
       <c r="X82" t="n">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>67c5adb4a3e0a4ddb17f77b8</t>
+          <t>67c74e67e5434c612975e945</t>
         </is>
       </c>
       <c r="X83" t="n">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>67c5adb4a3e0a4ddb17f77be</t>
+          <t>67c74e67e5434c612975e94b</t>
         </is>
       </c>
       <c r="X84" t="n">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>67c5adb2a3e0a4ddb17f7729</t>
+          <t>67c74e65e5434c612975e8b6</t>
         </is>
       </c>
       <c r="X85" t="n">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>67c5adb2a3e0a4ddb17f772b</t>
+          <t>67c74e65e5434c612975e8b8</t>
         </is>
       </c>
       <c r="X86" t="n">
@@ -14408,7 +14408,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>67c5adb2a3e0a4ddb17f772f</t>
+          <t>67c74e65e5434c612975e8bc</t>
         </is>
       </c>
       <c r="X87" t="n">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>67c5adb3a3e0a4ddb17f77a1</t>
+          <t>67c74e67e5434c612975e92e</t>
         </is>
       </c>
       <c r="X88" t="n">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>67c5adb3a3e0a4ddb17f779f</t>
+          <t>67c74e67e5434c612975e92c</t>
         </is>
       </c>
       <c r="X89" t="n">
@@ -14906,7 +14906,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7aa7</t>
+          <t>67c74e6fe5434c612975ec34</t>
         </is>
       </c>
       <c r="X90" t="n">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7aab</t>
+          <t>67c74e6fe5434c612975ec38</t>
         </is>
       </c>
       <c r="X91" t="n">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7aa3</t>
+          <t>67c74e6fe5434c612975ec30</t>
         </is>
       </c>
       <c r="X92" t="n">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7aa3</t>
+          <t>67c74e6fe5434c612975ec30</t>
         </is>
       </c>
       <c r="X93" t="n">
@@ -15568,7 +15568,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7aa1</t>
+          <t>67c74e6fe5434c612975ec2e</t>
         </is>
       </c>
       <c r="X94" t="n">
@@ -15734,7 +15734,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>67c5adbda3e0a4ddb17f7aa1</t>
+          <t>67c74e6fe5434c612975ec2e</t>
         </is>
       </c>
       <c r="X95" t="n">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>67c5adb4a3e0a4ddb17f77df</t>
+          <t>67c74e68e5434c612975e96c</t>
         </is>
       </c>
       <c r="X96" t="n">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>67c5adb4a3e0a4ddb17f77db</t>
+          <t>67c74e68e5434c612975e968</t>
         </is>
       </c>
       <c r="X97" t="n">
@@ -16232,7 +16232,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>67c5adb4a3e0a4ddb17f77e1</t>
+          <t>67c74e68e5434c612975e96e</t>
         </is>
       </c>
       <c r="X98" t="n">
@@ -16398,7 +16398,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>67c5adb4a3e0a4ddb17f77dd</t>
+          <t>67c74e68e5434c612975e96a</t>
         </is>
       </c>
       <c r="X99" t="n">
@@ -16564,7 +16564,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>67c5adc1a3e0a4ddb17f7ba9</t>
+          <t>67c74e72e5434c612975ed36</t>
         </is>
       </c>
       <c r="X100" t="n">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>67c5adc1a3e0a4ddb17f7bad</t>
+          <t>67c74e72e5434c612975ed3a</t>
         </is>
       </c>
       <c r="X101" t="n">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>67c5adc1a3e0a4ddb17f7bab</t>
+          <t>67c74e72e5434c612975ed38</t>
         </is>
       </c>
       <c r="X102" t="n">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>67c5adc1a3e0a4ddb17f7baf</t>
+          <t>67c74e72e5434c612975ed3c</t>
         </is>
       </c>
       <c r="X103" t="n">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>67c5adb2a3e0a4ddb17f774c</t>
+          <t>67c74e65e5434c612975e8d9</t>
         </is>
       </c>
       <c r="X104" t="n">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>67c5adb2a3e0a4ddb17f774e</t>
+          <t>67c74e65e5434c612975e8db</t>
         </is>
       </c>
       <c r="X105" t="n">
@@ -17558,7 +17558,7 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>67c5adc1a3e0a4ddb17f7bd6</t>
+          <t>67c74e73e5434c612975ed63</t>
         </is>
       </c>
       <c r="X106" t="n">
@@ -17724,7 +17724,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>67c5adc1a3e0a4ddb17f7bd4</t>
+          <t>67c74e73e5434c612975ed61</t>
         </is>
       </c>
       <c r="X107" t="n">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>67c5adc1a3e0a4ddb17f7bda</t>
+          <t>67c74e73e5434c612975ed67</t>
         </is>
       </c>
       <c r="X108" t="n">
@@ -18056,7 +18056,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>67c5adc1a3e0a4ddb17f7bd8</t>
+          <t>67c74e73e5434c612975ed65</t>
         </is>
       </c>
       <c r="X109" t="n">
@@ -18222,7 +18222,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>67c5adbba3e0a4ddb17f7a1f</t>
+          <t>67c74e6ee5434c612975ebac</t>
         </is>
       </c>
       <c r="X110" t="n">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>67c5adbba3e0a4ddb17f7a21</t>
+          <t>67c74e6ee5434c612975ebae</t>
         </is>
       </c>
       <c r="X111" t="n">
@@ -18554,7 +18554,7 @@
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>67c5adbca3e0a4ddb17f7a3e</t>
+          <t>67c74e6ee5434c612975ebcb</t>
         </is>
       </c>
       <c r="X112" t="n">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>67c5adbca3e0a4ddb17f7a3a</t>
+          <t>67c74e6ee5434c612975ebc7</t>
         </is>
       </c>
       <c r="X113" t="n">
@@ -18886,7 +18886,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>67c5adbca3e0a4ddb17f7a38</t>
+          <t>67c74e6ee5434c612975ebc5</t>
         </is>
       </c>
       <c r="X114" t="n">
@@ -19052,7 +19052,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>67c5adbfa3e0a4ddb17f7b54</t>
+          <t>67c74e71e5434c612975ece1</t>
         </is>
       </c>
       <c r="X115" t="n">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>67c5adbfa3e0a4ddb17f7b54</t>
+          <t>67c74e71e5434c612975ece1</t>
         </is>
       </c>
       <c r="X116" t="n">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>67c5adbca3e0a4ddb17f7a5b</t>
+          <t>67c74e6fe5434c612975ebe8</t>
         </is>
       </c>
       <c r="X117" t="n">
@@ -19550,7 +19550,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>67c5adb9a3e0a4ddb17f795d</t>
+          <t>67c74e6be5434c612975eaea</t>
         </is>
       </c>
       <c r="X118" t="n">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>67c5adb0a3e0a4ddb17f76e9</t>
+          <t>67c74e64e5434c612975e876</t>
         </is>
       </c>
       <c r="X119" t="n">
@@ -19882,7 +19882,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>67c5adb0a3e0a4ddb17f76e7</t>
+          <t>67c74e64e5434c612975e874</t>
         </is>
       </c>
       <c r="X120" t="n">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>67c5adb0a3e0a4ddb17f76e5</t>
+          <t>67c74e64e5434c612975e872</t>
         </is>
       </c>
       <c r="X121" t="n">
@@ -20214,7 +20214,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>67c5adafa3e0a4ddb17f7667</t>
+          <t>67c74e63e5434c612975e7f4</t>
         </is>
       </c>
       <c r="X122" t="n">
@@ -20380,7 +20380,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>67c5adafa3e0a4ddb17f7663</t>
+          <t>67c74e63e5434c612975e7f0</t>
         </is>
       </c>
       <c r="X123" t="n">
@@ -20546,7 +20546,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>67c5adbea3e0a4ddb17f7af1</t>
+          <t>67c74e70e5434c612975ec7e</t>
         </is>
       </c>
       <c r="X124" t="n">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>67c5adbea3e0a4ddb17f7af3</t>
+          <t>67c74e70e5434c612975ec80</t>
         </is>
       </c>
       <c r="X125" t="n">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>67c5adbea3e0a4ddb17f7af7</t>
+          <t>67c74e70e5434c612975ec84</t>
         </is>
       </c>
       <c r="X126" t="n">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>67c5adbea3e0a4ddb17f7af5</t>
+          <t>67c74e70e5434c612975ec82</t>
         </is>
       </c>
       <c r="X127" t="n">
@@ -21210,7 +21210,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>67c5adbea3e0a4ddb17f7ade</t>
+          <t>67c74e70e5434c612975ec6b</t>
         </is>
       </c>
       <c r="X128" t="n">
@@ -21376,7 +21376,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>67c5adbea3e0a4ddb17f7adc</t>
+          <t>67c74e70e5434c612975ec69</t>
         </is>
       </c>
       <c r="X129" t="n">
@@ -21542,7 +21542,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>67c5adbaa3e0a4ddb17f7995</t>
+          <t>67c74e6ce5434c612975eb22</t>
         </is>
       </c>
       <c r="X130" t="n">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>67c5adc0a3e0a4ddb17f7b7a</t>
+          <t>67c74e72e5434c612975ed07</t>
         </is>
       </c>
       <c r="X131" t="n">
@@ -21874,7 +21874,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>67c5adc0a3e0a4ddb17f7b82</t>
+          <t>67c74e72e5434c612975ed0f</t>
         </is>
       </c>
       <c r="X132" t="n">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>67c5adc0a3e0a4ddb17f7b7c</t>
+          <t>67c74e72e5434c612975ed09</t>
         </is>
       </c>
       <c r="X133" t="n">
@@ -22206,7 +22206,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>67c5adc0a3e0a4ddb17f7b7e</t>
+          <t>67c74e72e5434c612975ed0b</t>
         </is>
       </c>
       <c r="X134" t="n">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>67c5adc0a3e0a4ddb17f7b69</t>
+          <t>67c74e71e5434c612975ecf6</t>
         </is>
       </c>
       <c r="X135" t="n">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>67c5adc2a3e0a4ddb17f7c07</t>
+          <t>67c74e73e5434c612975ed94</t>
         </is>
       </c>
       <c r="X136" t="n">
@@ -22704,7 +22704,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>67c5adc2a3e0a4ddb17f7c05</t>
+          <t>67c74e73e5434c612975ed92</t>
         </is>
       </c>
       <c r="X137" t="n">
@@ -22870,7 +22870,7 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>67c5adc4a3e0a4ddb17f7c65</t>
+          <t>67c74e75e5434c612975edf2</t>
         </is>
       </c>
       <c r="X138" t="n">
@@ -23036,7 +23036,7 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>67c5adc4a3e0a4ddb17f7c61</t>
+          <t>67c74e75e5434c612975edee</t>
         </is>
       </c>
       <c r="X139" t="n">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>67c5adc5a3e0a4ddb17f7cad</t>
+          <t>67c74e76e5434c612975ee3a</t>
         </is>
       </c>
       <c r="X141" t="n">
@@ -23668,7 +23668,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>67c5adc9a3e0a4ddb17f7d28</t>
+          <t>67c74e79e5434c612975eeb5</t>
         </is>
       </c>
       <c r="X144" t="n">
@@ -24034,7 +24034,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>67c5adcaa3e0a4ddb17f7d46</t>
+          <t>67c74e7ae5434c612975eed3</t>
         </is>
       </c>
       <c r="X147" t="n">
@@ -24200,7 +24200,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>67c5adcaa3e0a4ddb17f7d48</t>
+          <t>67c74e7ae5434c612975eed5</t>
         </is>
       </c>
       <c r="X148" t="n">
@@ -24466,7 +24466,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>67c5adc4a3e0a4ddb17f7c7a</t>
+          <t>67c74e75e5434c612975ee07</t>
         </is>
       </c>
       <c r="X150" t="n">
@@ -24632,7 +24632,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>67c5adc7a3e0a4ddb17f7ce2</t>
+          <t>67c74e77e5434c612975ee6f</t>
         </is>
       </c>
       <c r="X151" t="n">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>67c5adc8a3e0a4ddb17f7d05</t>
+          <t>67c74e78e5434c612975ee92</t>
         </is>
       </c>
       <c r="X156" t="n">
@@ -25464,7 +25464,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>67c5adc7a3e0a4ddb17f7ced</t>
+          <t>67c74e77e5434c612975ee7a</t>
         </is>
       </c>
       <c r="X158" t="n">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>67c5adc5a3e0a4ddb17f7c9c</t>
+          <t>67c74e76e5434c612975ee29</t>
         </is>
       </c>
       <c r="X167" t="n">
@@ -26696,7 +26696,7 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>67c5adc3a3e0a4ddb17f7c31</t>
+          <t>67c74e74e5434c612975edbe</t>
         </is>
       </c>
       <c r="X169" t="n">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="W173" t="inlineStr">
         <is>
-          <t>67c5adc8a3e0a4ddb17f7d10</t>
+          <t>67c74e78e5434c612975ee9d</t>
         </is>
       </c>
       <c r="X173" t="n">
@@ -27528,7 +27528,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>67c5adc5a3e0a4ddb17f7c89</t>
+          <t>67c74e76e5434c612975ee16</t>
         </is>
       </c>
       <c r="X176" t="n">
@@ -27694,7 +27694,7 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>67c5adc5a3e0a4ddb17f7c89</t>
+          <t>67c74e76e5434c612975ee16</t>
         </is>
       </c>
       <c r="X177" t="n">
@@ -28060,7 +28060,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>67c5adcaa3e0a4ddb17f7d5d</t>
+          <t>67c74e7ae5434c612975eeea</t>
         </is>
       </c>
       <c r="X180" t="n">
@@ -28226,7 +28226,7 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>67c5adcaa3e0a4ddb17f7d5b</t>
+          <t>67c74e7ae5434c612975eee8</t>
         </is>
       </c>
       <c r="X181" t="n">
@@ -28392,7 +28392,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>67c5adc7a3e0a4ddb17f7cfa</t>
+          <t>67c74e78e5434c612975ee87</t>
         </is>
       </c>
       <c r="X182" t="n">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>67c5adc8a3e0a4ddb17f7d1b</t>
+          <t>67c74e79e5434c612975eea8</t>
         </is>
       </c>
       <c r="X184" t="n">
@@ -28824,7 +28824,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>67c5adc2a3e0a4ddb17f7c24</t>
+          <t>67c74e74e5434c612975edb1</t>
         </is>
       </c>
       <c r="X185" t="n">
@@ -28990,7 +28990,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>67c5adc6a3e0a4ddb17f7cd3</t>
+          <t>67c74e77e5434c612975ee60</t>
         </is>
       </c>
       <c r="X186" t="n">
@@ -29156,7 +29156,7 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>67c5adc3a3e0a4ddb17f7c44</t>
+          <t>67c74e74e5434c612975edd1</t>
         </is>
       </c>
       <c r="X187" t="n">
@@ -29322,7 +29322,7 @@
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>67c5adc3a3e0a4ddb17f7c40</t>
+          <t>67c74e74e5434c612975edcd</t>
         </is>
       </c>
       <c r="X188" t="n">
@@ -29488,7 +29488,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>67c5adc3a3e0a4ddb17f7c3e</t>
+          <t>67c74e74e5434c612975edcb</t>
         </is>
       </c>
       <c r="X189" t="n">
@@ -29654,7 +29654,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>67c5adc9a3e0a4ddb17f7d33</t>
+          <t>67c74e79e5434c612975eec0</t>
         </is>
       </c>
       <c r="X190" t="n">
@@ -29820,7 +29820,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>67c5adc9a3e0a4ddb17f7d33</t>
+          <t>67c74e79e5434c612975eec0</t>
         </is>
       </c>
       <c r="X191" t="n">
@@ -29986,7 +29986,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>67c5adc6a3e0a4ddb17f7cbe</t>
+          <t>67c74e76e5434c612975ee4b</t>
         </is>
       </c>
       <c r="X192" t="n">
@@ -30152,7 +30152,7 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>67c5adc6a3e0a4ddb17f7cc0</t>
+          <t>67c74e76e5434c612975ee4d</t>
         </is>
       </c>
       <c r="X193" t="n">
